--- a/src/main/resources/excel-template/sign2.xlsx
+++ b/src/main/resources/excel-template/sign2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cmy41\Desktop\hhzy\hhzy_crm\src\main\resources\excel-template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD361F0B-CE72-4933-A29A-3431B5CD6CFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C47A9E-93DD-4DB9-9AE5-F41AA2ADF7A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -266,21 +266,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.deliverTime</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>t.clearInfo}}</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -551,28 +536,32 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>t.isSubmit=='是'?是:否</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_record=='true'?是:否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.isNetSign=='true'?是:否</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.commission=='true'?是:否</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>{{projectName}}商铺定购信息登记表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>预告抵押登记号</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fd:(t.deliverTime;yyyy-MM-dd)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.commissionStr</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.isNetSignStr</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_recordStr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.isSubmitStr</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -893,21 +882,6 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="179" fontId="5" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -918,33 +892,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="179" fontId="5" fillId="6" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -953,6 +900,24 @@
     <xf numFmtId="177" fontId="5" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -960,6 +925,30 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1241,9 +1230,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:HJ5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomLeft" activeCell="AA22" sqref="AA22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1264,45 +1253,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:218" s="19" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="43"/>
-      <c r="W1" s="43"/>
-      <c r="X1" s="43"/>
-      <c r="Y1" s="43"/>
-      <c r="Z1" s="43"/>
-      <c r="AA1" s="43"/>
-      <c r="AB1" s="43"/>
-      <c r="AC1" s="43"/>
-      <c r="AD1" s="43"/>
-      <c r="AE1" s="43"/>
-      <c r="AF1" s="43"/>
-      <c r="AG1" s="43"/>
-      <c r="AH1" s="43"/>
-      <c r="AI1" s="43"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="43"/>
+      <c r="A1" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29"/>
+      <c r="AA1" s="29"/>
+      <c r="AB1" s="29"/>
+      <c r="AC1" s="29"/>
+      <c r="AD1" s="29"/>
+      <c r="AE1" s="29"/>
+      <c r="AF1" s="29"/>
+      <c r="AG1" s="29"/>
+      <c r="AH1" s="29"/>
+      <c r="AI1" s="29"/>
+      <c r="AJ1" s="29"/>
+      <c r="AK1" s="29"/>
       <c r="AL1" s="18"/>
       <c r="AM1" s="18"/>
       <c r="AN1" s="18"/>
@@ -1487,25 +1476,25 @@
     </row>
     <row r="2" spans="1:218" s="21" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="40"/>
       <c r="C2" s="40"/>
       <c r="D2" s="20"/>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="39"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="31"/>
       <c r="I2" s="17"/>
-      <c r="J2" s="37" t="s">
+      <c r="J2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
       <c r="O2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1524,19 +1513,19 @@
       <c r="Z2" s="42"/>
       <c r="AA2" s="42"/>
       <c r="AB2" s="42"/>
-      <c r="AC2" s="44" t="s">
+      <c r="AC2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="AD2" s="44"/>
-      <c r="AE2" s="44"/>
-      <c r="AF2" s="44"/>
-      <c r="AG2" s="44"/>
-      <c r="AH2" s="44"/>
-      <c r="AI2" s="45" t="s">
+      <c r="AD2" s="30"/>
+      <c r="AE2" s="30"/>
+      <c r="AF2" s="30"/>
+      <c r="AG2" s="30"/>
+      <c r="AH2" s="30"/>
+      <c r="AI2" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="AJ2" s="45"/>
-      <c r="AK2" s="45"/>
+      <c r="AJ2" s="37"/>
+      <c r="AK2" s="37"/>
       <c r="AL2" s="14"/>
       <c r="AM2" s="14"/>
       <c r="AN2" s="14"/>
@@ -1720,34 +1709,34 @@
       <c r="HJ2" s="14"/>
     </row>
     <row r="3" spans="1:218" s="22" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="E3" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="38" t="s">
+      <c r="F3" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="38" t="s">
+      <c r="G3" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="39" t="s">
+      <c r="H3" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="38" t="s">
+      <c r="I3" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="37" t="s">
+      <c r="J3" s="33" t="s">
         <v>0</v>
       </c>
       <c r="K3" s="34" t="s">
@@ -1759,89 +1748,89 @@
       <c r="M3" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="O3" s="27" t="s">
+      <c r="N3" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="O3" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="P3" s="29" t="s">
+      <c r="P3" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" s="29" t="s">
+      <c r="Q3" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="R3" s="25" t="s">
+      <c r="R3" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="S3" s="30" t="s">
+      <c r="S3" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="T3" s="31" t="s">
+      <c r="T3" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="U3" s="32"/>
-      <c r="V3" s="32"/>
-      <c r="W3" s="32"/>
-      <c r="X3" s="32"/>
-      <c r="Y3" s="33"/>
-      <c r="Z3" s="25" t="s">
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="27"/>
+      <c r="Y3" s="28"/>
+      <c r="Z3" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="AA3" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB3" s="25" t="s">
+      <c r="AA3" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB3" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="AC3" s="26" t="s">
+      <c r="AC3" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="AD3" s="26" t="s">
+      <c r="AD3" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="AE3" s="26" t="s">
+      <c r="AE3" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="AF3" s="26" t="s">
+      <c r="AF3" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="AG3" s="26" t="s">
+      <c r="AG3" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="AH3" s="26" t="s">
+      <c r="AH3" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="AI3" s="46" t="s">
+      <c r="AI3" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="AJ3" s="47" t="s">
+      <c r="AJ3" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AK3" s="47" t="s">
+      <c r="AK3" s="39" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:218" s="22" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="39"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="37"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="33"/>
       <c r="K4" s="35"/>
       <c r="L4" s="36"/>
       <c r="M4" s="36"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="30"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="43"/>
+      <c r="S4" s="25"/>
       <c r="T4" s="15" t="s">
         <v>35</v>
       </c>
@@ -1852,7 +1841,7 @@
         <v>37</v>
       </c>
       <c r="W4" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="X4" s="16" t="s">
         <v>38</v>
@@ -1860,64 +1849,64 @@
       <c r="Y4" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="Z4" s="25"/>
-      <c r="AA4" s="25"/>
-      <c r="AB4" s="25"/>
-      <c r="AC4" s="26"/>
-      <c r="AD4" s="26"/>
-      <c r="AE4" s="26"/>
-      <c r="AF4" s="26"/>
-      <c r="AG4" s="26"/>
-      <c r="AH4" s="26"/>
-      <c r="AI4" s="46"/>
-      <c r="AJ4" s="47"/>
-      <c r="AK4" s="47"/>
+      <c r="Z4" s="43"/>
+      <c r="AA4" s="43"/>
+      <c r="AB4" s="43"/>
+      <c r="AC4" s="44"/>
+      <c r="AD4" s="44"/>
+      <c r="AE4" s="44"/>
+      <c r="AF4" s="44"/>
+      <c r="AG4" s="44"/>
+      <c r="AH4" s="44"/>
+      <c r="AI4" s="38"/>
+      <c r="AJ4" s="39"/>
+      <c r="AK4" s="39"/>
     </row>
     <row r="5" spans="1:218" s="14" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="F5" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="G5" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="H5" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="I5" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="I5" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="M5" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="M5" s="8" t="s">
+      <c r="N5" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="N5" s="9" t="s">
-        <v>66</v>
-      </c>
       <c r="O5" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P5" s="10" t="s">
         <v>40</v>
@@ -1935,19 +1924,19 @@
         <v>44</v>
       </c>
       <c r="U5" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="V5" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="W5" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="X5" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="V5" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="W5" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="X5" s="13" t="s">
-        <v>53</v>
-      </c>
       <c r="Y5" s="13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z5" s="4" t="s">
         <v>45</v>
@@ -1959,48 +1948,60 @@
         <v>47</v>
       </c>
       <c r="AC5" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AD5" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE5" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="AE5" s="9" t="s">
-        <v>68</v>
-      </c>
       <c r="AF5" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AG5" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AH5" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AI5" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ5" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK5" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="AJ5" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="AK5" s="4" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="J2:N2"/>
+    <mergeCell ref="P2:AB2"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="AI2:AK2"/>
+    <mergeCell ref="AI3:AI4"/>
+    <mergeCell ref="AJ3:AJ4"/>
+    <mergeCell ref="AK3:AK4"/>
+    <mergeCell ref="AC3:AC4"/>
     <mergeCell ref="AD3:AD4"/>
     <mergeCell ref="AE3:AE4"/>
     <mergeCell ref="AF3:AF4"/>
     <mergeCell ref="AG3:AG4"/>
     <mergeCell ref="AH3:AH4"/>
-    <mergeCell ref="AI2:AK2"/>
-    <mergeCell ref="AI3:AI4"/>
-    <mergeCell ref="AJ3:AJ4"/>
-    <mergeCell ref="AK3:AK4"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="J2:N2"/>
-    <mergeCell ref="P2:AB2"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:Y3"/>
     <mergeCell ref="A1:AK1"/>
     <mergeCell ref="AC2:AH2"/>
     <mergeCell ref="A3:A4"/>
@@ -2015,18 +2016,6 @@
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="AC3:AC4"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:Y3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">

--- a/src/main/resources/excel-template/sign2.xlsx
+++ b/src/main/resources/excel-template/sign2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cmy41\Desktop\hhzy\hhzy_crm\src\main\resources\excel-template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C47A9E-93DD-4DB9-9AE5-F41AA2ADF7A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A78F01AB-C87C-4AB7-9B1F-5CF2C110C51D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -392,23 +392,6 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>sex</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>t.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>mobile</t>
     </r>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -563,17 +546,15 @@
     <t>t.isSubmitStr</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <t>t.sex==1?男:女</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
-  </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -806,150 +787,114 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="6" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="6" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1230,778 +1175,775 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:HJ5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA22" sqref="AA22"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" customWidth="1"/>
-    <col min="4" max="4" width="8.109375" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" customWidth="1"/>
-    <col min="9" max="9" width="11.21875" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" customWidth="1"/>
-    <col min="13" max="13" width="11" customWidth="1"/>
-    <col min="14" max="14" width="10.33203125" customWidth="1"/>
-    <col min="29" max="29" width="8.88671875" style="23"/>
+    <col min="1" max="1" width="15.33203125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" style="13" customWidth="1"/>
+    <col min="4" max="4" width="8.109375" style="13" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" style="13" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" style="13" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" style="13" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" style="13" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="13" customWidth="1"/>
+    <col min="11" max="12" width="8.88671875" style="13"/>
+    <col min="13" max="13" width="11.77734375" style="13" customWidth="1"/>
+    <col min="14" max="14" width="10.33203125" style="13" customWidth="1"/>
+    <col min="15" max="15" width="10.44140625" style="13" customWidth="1"/>
+    <col min="16" max="16" width="9.88671875" style="13" customWidth="1"/>
+    <col min="17" max="17" width="10.109375" style="13" customWidth="1"/>
+    <col min="18" max="18" width="9.33203125" style="13" customWidth="1"/>
+    <col min="19" max="19" width="9.88671875" style="13" customWidth="1"/>
+    <col min="20" max="20" width="10.21875" style="13" customWidth="1"/>
+    <col min="21" max="23" width="8.88671875" style="13"/>
+    <col min="24" max="24" width="11.88671875" style="13" customWidth="1"/>
+    <col min="25" max="25" width="8.88671875" style="13"/>
+    <col min="26" max="26" width="9.77734375" style="13" customWidth="1"/>
+    <col min="27" max="27" width="11.5546875" style="13" customWidth="1"/>
+    <col min="28" max="28" width="8.88671875" style="13"/>
+    <col min="29" max="29" width="12.109375" style="14" customWidth="1"/>
+    <col min="30" max="30" width="10.6640625" style="13" customWidth="1"/>
+    <col min="31" max="31" width="11.109375" style="13" customWidth="1"/>
+    <col min="32" max="32" width="9.6640625" style="13" customWidth="1"/>
+    <col min="33" max="33" width="10.21875" style="13" customWidth="1"/>
+    <col min="34" max="34" width="8.88671875" style="13"/>
+    <col min="35" max="35" width="11.77734375" style="13" customWidth="1"/>
+    <col min="36" max="36" width="9.33203125" style="13" customWidth="1"/>
+    <col min="37" max="37" width="10.88671875" style="13" customWidth="1"/>
+    <col min="38" max="16384" width="8.88671875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:218" s="19" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:218" s="6" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="27"/>
+      <c r="AC1" s="27"/>
+      <c r="AD1" s="27"/>
+      <c r="AE1" s="27"/>
+      <c r="AF1" s="27"/>
+      <c r="AG1" s="27"/>
+      <c r="AH1" s="27"/>
+      <c r="AI1" s="27"/>
+      <c r="AJ1" s="27"/>
+      <c r="AK1" s="27"/>
+      <c r="AL1" s="5"/>
+      <c r="AM1" s="5"/>
+      <c r="AN1" s="5"/>
+      <c r="AO1" s="5"/>
+      <c r="AP1" s="5"/>
+      <c r="AQ1" s="5"/>
+      <c r="AR1" s="5"/>
+      <c r="AS1" s="5"/>
+      <c r="AT1" s="5"/>
+      <c r="AU1" s="5"/>
+      <c r="AV1" s="5"/>
+      <c r="AW1" s="5"/>
+      <c r="AX1" s="5"/>
+      <c r="AY1" s="5"/>
+      <c r="AZ1" s="5"/>
+      <c r="BA1" s="5"/>
+      <c r="BB1" s="5"/>
+      <c r="BC1" s="5"/>
+      <c r="BD1" s="5"/>
+      <c r="BE1" s="5"/>
+      <c r="BF1" s="5"/>
+      <c r="BG1" s="5"/>
+      <c r="BH1" s="5"/>
+      <c r="BI1" s="5"/>
+      <c r="BJ1" s="5"/>
+      <c r="BK1" s="5"/>
+      <c r="BL1" s="5"/>
+      <c r="BM1" s="5"/>
+      <c r="BN1" s="5"/>
+      <c r="BO1" s="5"/>
+      <c r="BP1" s="5"/>
+      <c r="BQ1" s="5"/>
+      <c r="BR1" s="5"/>
+      <c r="BS1" s="5"/>
+      <c r="BT1" s="5"/>
+      <c r="BU1" s="5"/>
+      <c r="BV1" s="5"/>
+      <c r="BW1" s="5"/>
+      <c r="BX1" s="5"/>
+      <c r="BY1" s="5"/>
+      <c r="BZ1" s="5"/>
+      <c r="CA1" s="5"/>
+      <c r="CB1" s="5"/>
+      <c r="CC1" s="5"/>
+      <c r="CD1" s="5"/>
+      <c r="CE1" s="5"/>
+      <c r="CF1" s="5"/>
+      <c r="CG1" s="5"/>
+      <c r="CH1" s="5"/>
+      <c r="CI1" s="5"/>
+      <c r="CJ1" s="5"/>
+      <c r="CK1" s="5"/>
+      <c r="CL1" s="5"/>
+      <c r="CM1" s="5"/>
+      <c r="CN1" s="5"/>
+      <c r="CO1" s="5"/>
+      <c r="CP1" s="5"/>
+      <c r="CQ1" s="5"/>
+      <c r="CR1" s="5"/>
+      <c r="CS1" s="5"/>
+      <c r="CT1" s="5"/>
+      <c r="CU1" s="5"/>
+      <c r="CV1" s="5"/>
+      <c r="CW1" s="5"/>
+      <c r="CX1" s="5"/>
+      <c r="CY1" s="5"/>
+      <c r="CZ1" s="5"/>
+      <c r="DA1" s="5"/>
+      <c r="DB1" s="5"/>
+      <c r="DC1" s="5"/>
+      <c r="DD1" s="5"/>
+      <c r="DE1" s="5"/>
+      <c r="DF1" s="5"/>
+      <c r="DG1" s="5"/>
+      <c r="DH1" s="5"/>
+      <c r="DI1" s="5"/>
+      <c r="DJ1" s="5"/>
+      <c r="DK1" s="5"/>
+      <c r="DL1" s="5"/>
+      <c r="DM1" s="5"/>
+      <c r="DN1" s="5"/>
+      <c r="DO1" s="5"/>
+      <c r="DP1" s="5"/>
+      <c r="DQ1" s="5"/>
+      <c r="DR1" s="5"/>
+      <c r="DS1" s="5"/>
+      <c r="DT1" s="5"/>
+      <c r="DU1" s="5"/>
+      <c r="DV1" s="5"/>
+      <c r="DW1" s="5"/>
+      <c r="DX1" s="5"/>
+      <c r="DY1" s="5"/>
+      <c r="DZ1" s="5"/>
+      <c r="EA1" s="5"/>
+      <c r="EB1" s="5"/>
+      <c r="EC1" s="5"/>
+      <c r="ED1" s="5"/>
+      <c r="EE1" s="5"/>
+      <c r="EF1" s="5"/>
+      <c r="EG1" s="5"/>
+      <c r="EH1" s="5"/>
+      <c r="EI1" s="5"/>
+      <c r="EJ1" s="5"/>
+      <c r="EK1" s="5"/>
+      <c r="EL1" s="5"/>
+      <c r="EM1" s="5"/>
+      <c r="EN1" s="5"/>
+      <c r="EO1" s="5"/>
+      <c r="EP1" s="5"/>
+      <c r="EQ1" s="5"/>
+      <c r="ER1" s="5"/>
+      <c r="ES1" s="5"/>
+      <c r="ET1" s="5"/>
+      <c r="EU1" s="5"/>
+      <c r="EV1" s="5"/>
+      <c r="EW1" s="5"/>
+      <c r="EX1" s="5"/>
+      <c r="EY1" s="5"/>
+      <c r="EZ1" s="5"/>
+      <c r="FA1" s="5"/>
+      <c r="FB1" s="5"/>
+      <c r="FC1" s="5"/>
+      <c r="FD1" s="5"/>
+      <c r="FE1" s="5"/>
+      <c r="FF1" s="5"/>
+      <c r="FG1" s="5"/>
+      <c r="FH1" s="5"/>
+      <c r="FI1" s="5"/>
+      <c r="FJ1" s="5"/>
+      <c r="FK1" s="5"/>
+      <c r="FL1" s="5"/>
+      <c r="FM1" s="5"/>
+      <c r="FN1" s="5"/>
+      <c r="FO1" s="5"/>
+      <c r="FP1" s="5"/>
+      <c r="FQ1" s="5"/>
+      <c r="FR1" s="5"/>
+      <c r="FS1" s="5"/>
+      <c r="FT1" s="5"/>
+      <c r="FU1" s="5"/>
+      <c r="FV1" s="5"/>
+      <c r="FW1" s="5"/>
+      <c r="FX1" s="5"/>
+      <c r="FY1" s="5"/>
+      <c r="FZ1" s="5"/>
+      <c r="GA1" s="5"/>
+      <c r="GB1" s="5"/>
+      <c r="GC1" s="5"/>
+      <c r="GD1" s="5"/>
+      <c r="GE1" s="5"/>
+      <c r="GF1" s="5"/>
+      <c r="GG1" s="5"/>
+      <c r="GH1" s="5"/>
+      <c r="GI1" s="5"/>
+      <c r="GJ1" s="5"/>
+      <c r="GK1" s="5"/>
+      <c r="GL1" s="5"/>
+      <c r="GM1" s="5"/>
+      <c r="GN1" s="5"/>
+      <c r="GO1" s="5"/>
+      <c r="GP1" s="5"/>
+      <c r="GQ1" s="5"/>
+      <c r="GR1" s="5"/>
+      <c r="GS1" s="5"/>
+      <c r="GT1" s="5"/>
+      <c r="GU1" s="5"/>
+      <c r="GV1" s="5"/>
+      <c r="GW1" s="5"/>
+      <c r="GX1" s="5"/>
+      <c r="GY1" s="5"/>
+      <c r="GZ1" s="5"/>
+      <c r="HA1" s="5"/>
+      <c r="HB1" s="5"/>
+      <c r="HC1" s="5"/>
+      <c r="HD1" s="5"/>
+      <c r="HE1" s="5"/>
+      <c r="HF1" s="5"/>
+      <c r="HG1" s="5"/>
+      <c r="HH1" s="5"/>
+      <c r="HI1" s="5"/>
+      <c r="HJ1" s="5"/>
+    </row>
+    <row r="2" spans="1:218" s="9" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="P2" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="18"/>
+      <c r="AA2" s="18"/>
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="26"/>
+      <c r="AF2" s="26"/>
+      <c r="AG2" s="26"/>
+      <c r="AH2" s="26"/>
+      <c r="AI2" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ2" s="30"/>
+      <c r="AK2" s="30"/>
+      <c r="AL2" s="8"/>
+      <c r="AM2" s="8"/>
+      <c r="AN2" s="8"/>
+      <c r="AO2" s="8"/>
+      <c r="AP2" s="8"/>
+      <c r="AQ2" s="8"/>
+      <c r="AR2" s="8"/>
+      <c r="AS2" s="8"/>
+      <c r="AT2" s="8"/>
+      <c r="AU2" s="8"/>
+      <c r="AV2" s="8"/>
+      <c r="AW2" s="8"/>
+      <c r="AX2" s="8"/>
+      <c r="AY2" s="8"/>
+      <c r="AZ2" s="8"/>
+      <c r="BA2" s="8"/>
+      <c r="BB2" s="8"/>
+      <c r="BC2" s="8"/>
+      <c r="BD2" s="8"/>
+      <c r="BE2" s="8"/>
+      <c r="BF2" s="8"/>
+      <c r="BG2" s="8"/>
+      <c r="BH2" s="8"/>
+      <c r="BI2" s="8"/>
+      <c r="BJ2" s="8"/>
+      <c r="BK2" s="8"/>
+      <c r="BL2" s="8"/>
+      <c r="BM2" s="8"/>
+      <c r="BN2" s="8"/>
+      <c r="BO2" s="8"/>
+      <c r="BP2" s="8"/>
+      <c r="BQ2" s="8"/>
+      <c r="BR2" s="8"/>
+      <c r="BS2" s="8"/>
+      <c r="BT2" s="8"/>
+      <c r="BU2" s="8"/>
+      <c r="BV2" s="8"/>
+      <c r="BW2" s="8"/>
+      <c r="BX2" s="8"/>
+      <c r="BY2" s="8"/>
+      <c r="BZ2" s="8"/>
+      <c r="CA2" s="8"/>
+      <c r="CB2" s="8"/>
+      <c r="CC2" s="8"/>
+      <c r="CD2" s="8"/>
+      <c r="CE2" s="8"/>
+      <c r="CF2" s="8"/>
+      <c r="CG2" s="8"/>
+      <c r="CH2" s="8"/>
+      <c r="CI2" s="8"/>
+      <c r="CJ2" s="8"/>
+      <c r="CK2" s="8"/>
+      <c r="CL2" s="8"/>
+      <c r="CM2" s="8"/>
+      <c r="CN2" s="8"/>
+      <c r="CO2" s="8"/>
+      <c r="CP2" s="8"/>
+      <c r="CQ2" s="8"/>
+      <c r="CR2" s="8"/>
+      <c r="CS2" s="8"/>
+      <c r="CT2" s="8"/>
+      <c r="CU2" s="8"/>
+      <c r="CV2" s="8"/>
+      <c r="CW2" s="8"/>
+      <c r="CX2" s="8"/>
+      <c r="CY2" s="8"/>
+      <c r="CZ2" s="8"/>
+      <c r="DA2" s="8"/>
+      <c r="DB2" s="8"/>
+      <c r="DC2" s="8"/>
+      <c r="DD2" s="8"/>
+      <c r="DE2" s="8"/>
+      <c r="DF2" s="8"/>
+      <c r="DG2" s="8"/>
+      <c r="DH2" s="8"/>
+      <c r="DI2" s="8"/>
+      <c r="DJ2" s="8"/>
+      <c r="DK2" s="8"/>
+      <c r="DL2" s="8"/>
+      <c r="DM2" s="8"/>
+      <c r="DN2" s="8"/>
+      <c r="DO2" s="8"/>
+      <c r="DP2" s="8"/>
+      <c r="DQ2" s="8"/>
+      <c r="DR2" s="8"/>
+      <c r="DS2" s="8"/>
+      <c r="DT2" s="8"/>
+      <c r="DU2" s="8"/>
+      <c r="DV2" s="8"/>
+      <c r="DW2" s="8"/>
+      <c r="DX2" s="8"/>
+      <c r="DY2" s="8"/>
+      <c r="DZ2" s="8"/>
+      <c r="EA2" s="8"/>
+      <c r="EB2" s="8"/>
+      <c r="EC2" s="8"/>
+      <c r="ED2" s="8"/>
+      <c r="EE2" s="8"/>
+      <c r="EF2" s="8"/>
+      <c r="EG2" s="8"/>
+      <c r="EH2" s="8"/>
+      <c r="EI2" s="8"/>
+      <c r="EJ2" s="8"/>
+      <c r="EK2" s="8"/>
+      <c r="EL2" s="8"/>
+      <c r="EM2" s="8"/>
+      <c r="EN2" s="8"/>
+      <c r="EO2" s="8"/>
+      <c r="EP2" s="8"/>
+      <c r="EQ2" s="8"/>
+      <c r="ER2" s="8"/>
+      <c r="ES2" s="8"/>
+      <c r="ET2" s="8"/>
+      <c r="EU2" s="8"/>
+      <c r="EV2" s="8"/>
+      <c r="EW2" s="8"/>
+      <c r="EX2" s="8"/>
+      <c r="EY2" s="8"/>
+      <c r="EZ2" s="8"/>
+      <c r="FA2" s="8"/>
+      <c r="FB2" s="8"/>
+      <c r="FC2" s="8"/>
+      <c r="FD2" s="8"/>
+      <c r="FE2" s="8"/>
+      <c r="FF2" s="8"/>
+      <c r="FG2" s="8"/>
+      <c r="FH2" s="8"/>
+      <c r="FI2" s="8"/>
+      <c r="FJ2" s="8"/>
+      <c r="FK2" s="8"/>
+      <c r="FL2" s="8"/>
+      <c r="FM2" s="8"/>
+      <c r="FN2" s="8"/>
+      <c r="FO2" s="8"/>
+      <c r="FP2" s="8"/>
+      <c r="FQ2" s="8"/>
+      <c r="FR2" s="8"/>
+      <c r="FS2" s="8"/>
+      <c r="FT2" s="8"/>
+      <c r="FU2" s="8"/>
+      <c r="FV2" s="8"/>
+      <c r="FW2" s="8"/>
+      <c r="FX2" s="8"/>
+      <c r="FY2" s="8"/>
+      <c r="FZ2" s="8"/>
+      <c r="GA2" s="8"/>
+      <c r="GB2" s="8"/>
+      <c r="GC2" s="8"/>
+      <c r="GD2" s="8"/>
+      <c r="GE2" s="8"/>
+      <c r="GF2" s="8"/>
+      <c r="GG2" s="8"/>
+      <c r="GH2" s="8"/>
+      <c r="GI2" s="8"/>
+      <c r="GJ2" s="8"/>
+      <c r="GK2" s="8"/>
+      <c r="GL2" s="8"/>
+      <c r="GM2" s="8"/>
+      <c r="GN2" s="8"/>
+      <c r="GO2" s="8"/>
+      <c r="GP2" s="8"/>
+      <c r="GQ2" s="8"/>
+      <c r="GR2" s="8"/>
+      <c r="GS2" s="8"/>
+      <c r="GT2" s="8"/>
+      <c r="GU2" s="8"/>
+      <c r="GV2" s="8"/>
+      <c r="GW2" s="8"/>
+      <c r="GX2" s="8"/>
+      <c r="GY2" s="8"/>
+      <c r="GZ2" s="8"/>
+      <c r="HA2" s="8"/>
+      <c r="HB2" s="8"/>
+      <c r="HC2" s="8"/>
+      <c r="HD2" s="8"/>
+      <c r="HE2" s="8"/>
+      <c r="HF2" s="8"/>
+      <c r="HG2" s="8"/>
+      <c r="HH2" s="8"/>
+      <c r="HI2" s="8"/>
+      <c r="HJ2" s="8"/>
+    </row>
+    <row r="3" spans="1:218" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="O3" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="S3" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="T3" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="24"/>
+      <c r="Z3" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA3" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
-      <c r="W1" s="29"/>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="29"/>
-      <c r="Z1" s="29"/>
-      <c r="AA1" s="29"/>
-      <c r="AB1" s="29"/>
-      <c r="AC1" s="29"/>
-      <c r="AD1" s="29"/>
-      <c r="AE1" s="29"/>
-      <c r="AF1" s="29"/>
-      <c r="AG1" s="29"/>
-      <c r="AH1" s="29"/>
-      <c r="AI1" s="29"/>
-      <c r="AJ1" s="29"/>
-      <c r="AK1" s="29"/>
-      <c r="AL1" s="18"/>
-      <c r="AM1" s="18"/>
-      <c r="AN1" s="18"/>
-      <c r="AO1" s="18"/>
-      <c r="AP1" s="18"/>
-      <c r="AQ1" s="18"/>
-      <c r="AR1" s="18"/>
-      <c r="AS1" s="18"/>
-      <c r="AT1" s="18"/>
-      <c r="AU1" s="18"/>
-      <c r="AV1" s="18"/>
-      <c r="AW1" s="18"/>
-      <c r="AX1" s="18"/>
-      <c r="AY1" s="18"/>
-      <c r="AZ1" s="18"/>
-      <c r="BA1" s="18"/>
-      <c r="BB1" s="18"/>
-      <c r="BC1" s="18"/>
-      <c r="BD1" s="18"/>
-      <c r="BE1" s="18"/>
-      <c r="BF1" s="18"/>
-      <c r="BG1" s="18"/>
-      <c r="BH1" s="18"/>
-      <c r="BI1" s="18"/>
-      <c r="BJ1" s="18"/>
-      <c r="BK1" s="18"/>
-      <c r="BL1" s="18"/>
-      <c r="BM1" s="18"/>
-      <c r="BN1" s="18"/>
-      <c r="BO1" s="18"/>
-      <c r="BP1" s="18"/>
-      <c r="BQ1" s="18"/>
-      <c r="BR1" s="18"/>
-      <c r="BS1" s="18"/>
-      <c r="BT1" s="18"/>
-      <c r="BU1" s="18"/>
-      <c r="BV1" s="18"/>
-      <c r="BW1" s="18"/>
-      <c r="BX1" s="18"/>
-      <c r="BY1" s="18"/>
-      <c r="BZ1" s="18"/>
-      <c r="CA1" s="18"/>
-      <c r="CB1" s="18"/>
-      <c r="CC1" s="18"/>
-      <c r="CD1" s="18"/>
-      <c r="CE1" s="18"/>
-      <c r="CF1" s="18"/>
-      <c r="CG1" s="18"/>
-      <c r="CH1" s="18"/>
-      <c r="CI1" s="18"/>
-      <c r="CJ1" s="18"/>
-      <c r="CK1" s="18"/>
-      <c r="CL1" s="18"/>
-      <c r="CM1" s="18"/>
-      <c r="CN1" s="18"/>
-      <c r="CO1" s="18"/>
-      <c r="CP1" s="18"/>
-      <c r="CQ1" s="18"/>
-      <c r="CR1" s="18"/>
-      <c r="CS1" s="18"/>
-      <c r="CT1" s="18"/>
-      <c r="CU1" s="18"/>
-      <c r="CV1" s="18"/>
-      <c r="CW1" s="18"/>
-      <c r="CX1" s="18"/>
-      <c r="CY1" s="18"/>
-      <c r="CZ1" s="18"/>
-      <c r="DA1" s="18"/>
-      <c r="DB1" s="18"/>
-      <c r="DC1" s="18"/>
-      <c r="DD1" s="18"/>
-      <c r="DE1" s="18"/>
-      <c r="DF1" s="18"/>
-      <c r="DG1" s="18"/>
-      <c r="DH1" s="18"/>
-      <c r="DI1" s="18"/>
-      <c r="DJ1" s="18"/>
-      <c r="DK1" s="18"/>
-      <c r="DL1" s="18"/>
-      <c r="DM1" s="18"/>
-      <c r="DN1" s="18"/>
-      <c r="DO1" s="18"/>
-      <c r="DP1" s="18"/>
-      <c r="DQ1" s="18"/>
-      <c r="DR1" s="18"/>
-      <c r="DS1" s="18"/>
-      <c r="DT1" s="18"/>
-      <c r="DU1" s="18"/>
-      <c r="DV1" s="18"/>
-      <c r="DW1" s="18"/>
-      <c r="DX1" s="18"/>
-      <c r="DY1" s="18"/>
-      <c r="DZ1" s="18"/>
-      <c r="EA1" s="18"/>
-      <c r="EB1" s="18"/>
-      <c r="EC1" s="18"/>
-      <c r="ED1" s="18"/>
-      <c r="EE1" s="18"/>
-      <c r="EF1" s="18"/>
-      <c r="EG1" s="18"/>
-      <c r="EH1" s="18"/>
-      <c r="EI1" s="18"/>
-      <c r="EJ1" s="18"/>
-      <c r="EK1" s="18"/>
-      <c r="EL1" s="18"/>
-      <c r="EM1" s="18"/>
-      <c r="EN1" s="18"/>
-      <c r="EO1" s="18"/>
-      <c r="EP1" s="18"/>
-      <c r="EQ1" s="18"/>
-      <c r="ER1" s="18"/>
-      <c r="ES1" s="18"/>
-      <c r="ET1" s="18"/>
-      <c r="EU1" s="18"/>
-      <c r="EV1" s="18"/>
-      <c r="EW1" s="18"/>
-      <c r="EX1" s="18"/>
-      <c r="EY1" s="18"/>
-      <c r="EZ1" s="18"/>
-      <c r="FA1" s="18"/>
-      <c r="FB1" s="18"/>
-      <c r="FC1" s="18"/>
-      <c r="FD1" s="18"/>
-      <c r="FE1" s="18"/>
-      <c r="FF1" s="18"/>
-      <c r="FG1" s="18"/>
-      <c r="FH1" s="18"/>
-      <c r="FI1" s="18"/>
-      <c r="FJ1" s="18"/>
-      <c r="FK1" s="18"/>
-      <c r="FL1" s="18"/>
-      <c r="FM1" s="18"/>
-      <c r="FN1" s="18"/>
-      <c r="FO1" s="18"/>
-      <c r="FP1" s="18"/>
-      <c r="FQ1" s="18"/>
-      <c r="FR1" s="18"/>
-      <c r="FS1" s="18"/>
-      <c r="FT1" s="18"/>
-      <c r="FU1" s="18"/>
-      <c r="FV1" s="18"/>
-      <c r="FW1" s="18"/>
-      <c r="FX1" s="18"/>
-      <c r="FY1" s="18"/>
-      <c r="FZ1" s="18"/>
-      <c r="GA1" s="18"/>
-      <c r="GB1" s="18"/>
-      <c r="GC1" s="18"/>
-      <c r="GD1" s="18"/>
-      <c r="GE1" s="18"/>
-      <c r="GF1" s="18"/>
-      <c r="GG1" s="18"/>
-      <c r="GH1" s="18"/>
-      <c r="GI1" s="18"/>
-      <c r="GJ1" s="18"/>
-      <c r="GK1" s="18"/>
-      <c r="GL1" s="18"/>
-      <c r="GM1" s="18"/>
-      <c r="GN1" s="18"/>
-      <c r="GO1" s="18"/>
-      <c r="GP1" s="18"/>
-      <c r="GQ1" s="18"/>
-      <c r="GR1" s="18"/>
-      <c r="GS1" s="18"/>
-      <c r="GT1" s="18"/>
-      <c r="GU1" s="18"/>
-      <c r="GV1" s="18"/>
-      <c r="GW1" s="18"/>
-      <c r="GX1" s="18"/>
-      <c r="GY1" s="18"/>
-      <c r="GZ1" s="18"/>
-      <c r="HA1" s="18"/>
-      <c r="HB1" s="18"/>
-      <c r="HC1" s="18"/>
-      <c r="HD1" s="18"/>
-      <c r="HE1" s="18"/>
-      <c r="HF1" s="18"/>
-      <c r="HG1" s="18"/>
-      <c r="HH1" s="18"/>
-      <c r="HI1" s="18"/>
-      <c r="HJ1" s="18"/>
+      <c r="AB3" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC3" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD3" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE3" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF3" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG3" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH3" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI3" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ3" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK3" s="25" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:218" s="21" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="P2" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="42"/>
-      <c r="S2" s="42"/>
-      <c r="T2" s="42"/>
-      <c r="U2" s="42"/>
-      <c r="V2" s="42"/>
-      <c r="W2" s="42"/>
-      <c r="X2" s="42"/>
-      <c r="Y2" s="42"/>
-      <c r="Z2" s="42"/>
-      <c r="AA2" s="42"/>
-      <c r="AB2" s="42"/>
-      <c r="AC2" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD2" s="30"/>
-      <c r="AE2" s="30"/>
-      <c r="AF2" s="30"/>
-      <c r="AG2" s="30"/>
-      <c r="AH2" s="30"/>
-      <c r="AI2" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="AJ2" s="37"/>
-      <c r="AK2" s="37"/>
-      <c r="AL2" s="14"/>
-      <c r="AM2" s="14"/>
-      <c r="AN2" s="14"/>
-      <c r="AO2" s="14"/>
-      <c r="AP2" s="14"/>
-      <c r="AQ2" s="14"/>
-      <c r="AR2" s="14"/>
-      <c r="AS2" s="14"/>
-      <c r="AT2" s="14"/>
-      <c r="AU2" s="14"/>
-      <c r="AV2" s="14"/>
-      <c r="AW2" s="14"/>
-      <c r="AX2" s="14"/>
-      <c r="AY2" s="14"/>
-      <c r="AZ2" s="14"/>
-      <c r="BA2" s="14"/>
-      <c r="BB2" s="14"/>
-      <c r="BC2" s="14"/>
-      <c r="BD2" s="14"/>
-      <c r="BE2" s="14"/>
-      <c r="BF2" s="14"/>
-      <c r="BG2" s="14"/>
-      <c r="BH2" s="14"/>
-      <c r="BI2" s="14"/>
-      <c r="BJ2" s="14"/>
-      <c r="BK2" s="14"/>
-      <c r="BL2" s="14"/>
-      <c r="BM2" s="14"/>
-      <c r="BN2" s="14"/>
-      <c r="BO2" s="14"/>
-      <c r="BP2" s="14"/>
-      <c r="BQ2" s="14"/>
-      <c r="BR2" s="14"/>
-      <c r="BS2" s="14"/>
-      <c r="BT2" s="14"/>
-      <c r="BU2" s="14"/>
-      <c r="BV2" s="14"/>
-      <c r="BW2" s="14"/>
-      <c r="BX2" s="14"/>
-      <c r="BY2" s="14"/>
-      <c r="BZ2" s="14"/>
-      <c r="CA2" s="14"/>
-      <c r="CB2" s="14"/>
-      <c r="CC2" s="14"/>
-      <c r="CD2" s="14"/>
-      <c r="CE2" s="14"/>
-      <c r="CF2" s="14"/>
-      <c r="CG2" s="14"/>
-      <c r="CH2" s="14"/>
-      <c r="CI2" s="14"/>
-      <c r="CJ2" s="14"/>
-      <c r="CK2" s="14"/>
-      <c r="CL2" s="14"/>
-      <c r="CM2" s="14"/>
-      <c r="CN2" s="14"/>
-      <c r="CO2" s="14"/>
-      <c r="CP2" s="14"/>
-      <c r="CQ2" s="14"/>
-      <c r="CR2" s="14"/>
-      <c r="CS2" s="14"/>
-      <c r="CT2" s="14"/>
-      <c r="CU2" s="14"/>
-      <c r="CV2" s="14"/>
-      <c r="CW2" s="14"/>
-      <c r="CX2" s="14"/>
-      <c r="CY2" s="14"/>
-      <c r="CZ2" s="14"/>
-      <c r="DA2" s="14"/>
-      <c r="DB2" s="14"/>
-      <c r="DC2" s="14"/>
-      <c r="DD2" s="14"/>
-      <c r="DE2" s="14"/>
-      <c r="DF2" s="14"/>
-      <c r="DG2" s="14"/>
-      <c r="DH2" s="14"/>
-      <c r="DI2" s="14"/>
-      <c r="DJ2" s="14"/>
-      <c r="DK2" s="14"/>
-      <c r="DL2" s="14"/>
-      <c r="DM2" s="14"/>
-      <c r="DN2" s="14"/>
-      <c r="DO2" s="14"/>
-      <c r="DP2" s="14"/>
-      <c r="DQ2" s="14"/>
-      <c r="DR2" s="14"/>
-      <c r="DS2" s="14"/>
-      <c r="DT2" s="14"/>
-      <c r="DU2" s="14"/>
-      <c r="DV2" s="14"/>
-      <c r="DW2" s="14"/>
-      <c r="DX2" s="14"/>
-      <c r="DY2" s="14"/>
-      <c r="DZ2" s="14"/>
-      <c r="EA2" s="14"/>
-      <c r="EB2" s="14"/>
-      <c r="EC2" s="14"/>
-      <c r="ED2" s="14"/>
-      <c r="EE2" s="14"/>
-      <c r="EF2" s="14"/>
-      <c r="EG2" s="14"/>
-      <c r="EH2" s="14"/>
-      <c r="EI2" s="14"/>
-      <c r="EJ2" s="14"/>
-      <c r="EK2" s="14"/>
-      <c r="EL2" s="14"/>
-      <c r="EM2" s="14"/>
-      <c r="EN2" s="14"/>
-      <c r="EO2" s="14"/>
-      <c r="EP2" s="14"/>
-      <c r="EQ2" s="14"/>
-      <c r="ER2" s="14"/>
-      <c r="ES2" s="14"/>
-      <c r="ET2" s="14"/>
-      <c r="EU2" s="14"/>
-      <c r="EV2" s="14"/>
-      <c r="EW2" s="14"/>
-      <c r="EX2" s="14"/>
-      <c r="EY2" s="14"/>
-      <c r="EZ2" s="14"/>
-      <c r="FA2" s="14"/>
-      <c r="FB2" s="14"/>
-      <c r="FC2" s="14"/>
-      <c r="FD2" s="14"/>
-      <c r="FE2" s="14"/>
-      <c r="FF2" s="14"/>
-      <c r="FG2" s="14"/>
-      <c r="FH2" s="14"/>
-      <c r="FI2" s="14"/>
-      <c r="FJ2" s="14"/>
-      <c r="FK2" s="14"/>
-      <c r="FL2" s="14"/>
-      <c r="FM2" s="14"/>
-      <c r="FN2" s="14"/>
-      <c r="FO2" s="14"/>
-      <c r="FP2" s="14"/>
-      <c r="FQ2" s="14"/>
-      <c r="FR2" s="14"/>
-      <c r="FS2" s="14"/>
-      <c r="FT2" s="14"/>
-      <c r="FU2" s="14"/>
-      <c r="FV2" s="14"/>
-      <c r="FW2" s="14"/>
-      <c r="FX2" s="14"/>
-      <c r="FY2" s="14"/>
-      <c r="FZ2" s="14"/>
-      <c r="GA2" s="14"/>
-      <c r="GB2" s="14"/>
-      <c r="GC2" s="14"/>
-      <c r="GD2" s="14"/>
-      <c r="GE2" s="14"/>
-      <c r="GF2" s="14"/>
-      <c r="GG2" s="14"/>
-      <c r="GH2" s="14"/>
-      <c r="GI2" s="14"/>
-      <c r="GJ2" s="14"/>
-      <c r="GK2" s="14"/>
-      <c r="GL2" s="14"/>
-      <c r="GM2" s="14"/>
-      <c r="GN2" s="14"/>
-      <c r="GO2" s="14"/>
-      <c r="GP2" s="14"/>
-      <c r="GQ2" s="14"/>
-      <c r="GR2" s="14"/>
-      <c r="GS2" s="14"/>
-      <c r="GT2" s="14"/>
-      <c r="GU2" s="14"/>
-      <c r="GV2" s="14"/>
-      <c r="GW2" s="14"/>
-      <c r="GX2" s="14"/>
-      <c r="GY2" s="14"/>
-      <c r="GZ2" s="14"/>
-      <c r="HA2" s="14"/>
-      <c r="HB2" s="14"/>
-      <c r="HC2" s="14"/>
-      <c r="HD2" s="14"/>
-      <c r="HE2" s="14"/>
-      <c r="HF2" s="14"/>
-      <c r="HG2" s="14"/>
-      <c r="HH2" s="14"/>
-      <c r="HI2" s="14"/>
-      <c r="HJ2" s="14"/>
+    <row r="4" spans="1:218" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="U4" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="V4" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="W4" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="X4" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y4" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z4" s="19"/>
+      <c r="AA4" s="19"/>
+      <c r="AB4" s="19"/>
+      <c r="AC4" s="26"/>
+      <c r="AD4" s="26"/>
+      <c r="AE4" s="26"/>
+      <c r="AF4" s="26"/>
+      <c r="AG4" s="26"/>
+      <c r="AH4" s="26"/>
+      <c r="AI4" s="25"/>
+      <c r="AJ4" s="25"/>
+      <c r="AK4" s="25"/>
     </row>
-    <row r="3" spans="1:218" s="22" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="L3" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="M3" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="N3" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="O3" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="P3" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q3" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="R3" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="S3" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="T3" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="U3" s="27"/>
-      <c r="V3" s="27"/>
-      <c r="W3" s="27"/>
-      <c r="X3" s="27"/>
-      <c r="Y3" s="28"/>
-      <c r="Z3" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA3" s="43" t="s">
+    <row r="5" spans="1:218" s="35" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="P5" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q5" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="R5" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="S5" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="T5" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="U5" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="V5" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="W5" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="X5" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y5" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z5" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA5" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB5" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI5" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="AB3" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC3" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD3" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="AE3" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="AF3" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG3" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="AH3" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="AI3" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="AJ3" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK3" s="39" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:218" s="22" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="43"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="U4" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="V4" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="W4" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="X4" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y4" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z4" s="43"/>
-      <c r="AA4" s="43"/>
-      <c r="AB4" s="43"/>
-      <c r="AC4" s="44"/>
-      <c r="AD4" s="44"/>
-      <c r="AE4" s="44"/>
-      <c r="AF4" s="44"/>
-      <c r="AG4" s="44"/>
-      <c r="AH4" s="44"/>
-      <c r="AI4" s="38"/>
-      <c r="AJ4" s="39"/>
-      <c r="AK4" s="39"/>
-    </row>
-    <row r="5" spans="1:218" s="14" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="N5" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="P5" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q5" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="R5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="S5" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="T5" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="U5" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="V5" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="W5" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="X5" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y5" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z5" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA5" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB5" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC5" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD5" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE5" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="AF5" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG5" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="AH5" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI5" s="4" t="s">
+      <c r="AJ5" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="AJ5" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="AK5" s="4" t="s">
+      <c r="AK5" s="31" t="s">
         <v>48</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="J2:N2"/>
-    <mergeCell ref="P2:AB2"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="AI2:AK2"/>
-    <mergeCell ref="AI3:AI4"/>
-    <mergeCell ref="AJ3:AJ4"/>
-    <mergeCell ref="AK3:AK4"/>
-    <mergeCell ref="AC3:AC4"/>
-    <mergeCell ref="AD3:AD4"/>
-    <mergeCell ref="AE3:AE4"/>
-    <mergeCell ref="AF3:AF4"/>
-    <mergeCell ref="AG3:AG4"/>
-    <mergeCell ref="AH3:AH4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:Y3"/>
     <mergeCell ref="A1:AK1"/>
     <mergeCell ref="AC2:AH2"/>
     <mergeCell ref="A3:A4"/>
@@ -2016,6 +1958,31 @@
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
+    <mergeCell ref="AI2:AK2"/>
+    <mergeCell ref="AI3:AI4"/>
+    <mergeCell ref="AJ3:AJ4"/>
+    <mergeCell ref="AK3:AK4"/>
+    <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="AE3:AE4"/>
+    <mergeCell ref="AF3:AF4"/>
+    <mergeCell ref="AG3:AG4"/>
+    <mergeCell ref="AH3:AH4"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="J2:N2"/>
+    <mergeCell ref="P2:AB2"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:Y3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
